--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelEmp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelEmp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C861D6A-F2EE-4135-AC9E-7F6706A5413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6390"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1050" yWindow="1520" windowWidth="18150" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>備註說明</t>
   </si>
@@ -175,12 +176,31 @@
     <t xml:space="preserve">人壽利關人職員檔 T07_2
 (使用報表：LM013) </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAcDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -386,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,32 +425,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,10 +473,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,6 +491,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -494,14 +514,11 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,6 +609,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -627,6 +661,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -802,25 +853,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.08984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" style="15" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.08984375" style="13" customWidth="1"/>
     <col min="8" max="16384" width="21.453125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
@@ -828,7 +879,7 @@
       <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="6"/>
@@ -838,48 +889,48 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="35"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
@@ -893,8 +944,8 @@
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
@@ -903,216 +954,231 @@
       <c r="B7" s="34"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="13">
+        <v>8</v>
+      </c>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="13">
         <v>10</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="13">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13">
+        <v>100</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13">
+        <v>16</v>
+      </c>
+      <c r="F12" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="15">
-        <v>100</v>
-      </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
-        <v>3</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15">
-        <v>16</v>
-      </c>
-      <c r="F11" s="15">
-        <v>2</v>
-      </c>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
-        <v>4</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E14" s="13">
+        <v>6</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="13">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
-        <v>5</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="13">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13">
         <v>6</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
-        <v>6</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="15">
-        <v>6</v>
-      </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="3"/>
-      <c r="D16" s="15"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
-      <c r="D17" s="15"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="13"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
-      <c r="D18" s="15"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="D18" s="13"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
-      <c r="D21" s="15"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="13"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="29"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="29"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="29"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="29"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="29"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="3"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
@@ -1135,26 +1201,29 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="15"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="15"/>
-      <c r="F44" s="27"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="13"/>
+      <c r="F45" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1173,12 +1242,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1200,8 +1269,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1211,7 +1288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1225,14 +1302,14 @@
     <col min="3" max="3" width="60.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelEmp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelEmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C861D6A-F2EE-4135-AC9E-7F6706A5413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C4E5E6-B955-48C0-A809-9227906DC259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1050" yWindow="1520" windowWidth="18150" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="720" yWindow="720" windowWidth="18150" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>備註說明</t>
   </si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t xml:space="preserve">AcDate = </t>
+  </si>
+  <si>
+    <t>EmpId,AcDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -857,7 +861,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -905,7 +909,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>33</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelEmp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LifeRelEmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C4E5E6-B955-48C0-A809-9227906DC259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3047B6-4269-4223-B9B2-F6FE6E443DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="720" yWindow="720" windowWidth="18150" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,6 +195,9 @@
   <si>
     <t>EmpId,AcDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -538,9 +537,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,9 +577,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,26 +612,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,26 +647,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,36 +826,36 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" style="15" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.08984375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="8"/>
+    <col min="1" max="1" width="5.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="20" t="s">
@@ -903,22 +868,22 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
@@ -929,7 +894,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
@@ -940,7 +905,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -951,7 +916,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -962,7 +927,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
@@ -985,33 +950,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="13">
         <v>8</v>
       </c>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
@@ -1021,15 +986,15 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
@@ -1039,18 +1004,18 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="13">
         <v>16</v>
@@ -1060,7 +1025,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>5</v>
       </c>
@@ -1071,19 +1036,19 @@
         <v>20</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>18</v>
@@ -1093,137 +1058,137 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>7</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>8</v>
       </c>
       <c r="B16" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="E16" s="13">
         <v>6</v>
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="D17" s="13"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="D18" s="13"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="D19" s="13"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="D22" s="13"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="27"/>
       <c r="C24" s="16"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="27"/>
       <c r="C25" s="16"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
       <c r="C26" s="16"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="16"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="13"/>
@@ -1254,15 +1219,15 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1273,15 +1238,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
     </row>
   </sheetData>
@@ -1299,22 +1264,22 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.90625" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
